--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_0_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_0_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1401262.985896687</v>
+        <v>1331675.43305519</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>365038.9794690263</v>
+        <v>277657.5486700865</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12434090.2960877</v>
+        <v>8768687.110075584</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6656530.36724965</v>
+        <v>8349122.46568981</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,22 +667,22 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>205.5810588664028</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>84.97365353379637</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -746,13 +746,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -803,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>52.65774996597702</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>65.5944526828373</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V5" t="n">
-        <v>102.3382270926889</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,31 +974,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>22.62529567903921</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>62.88143347497287</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -1189,13 +1189,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>233.3820099375147</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -1223,7 +1223,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>118.5540130169417</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -1232,10 +1232,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>40.67087089223148</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1375,10 +1375,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>138.854596704958</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,19 +1417,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>181.3631617334038</v>
+        <v>126.9727812916326</v>
       </c>
       <c r="T11" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1454,22 +1454,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>146.9196691137536</v>
       </c>
       <c r="F12" t="n">
-        <v>91.6867458199809</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>159.6212195484502</v>
@@ -1539,19 +1539,19 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>36.48436605884934</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1581,16 +1581,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>43.35606979968759</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H14" t="n">
-        <v>22.95085578596453</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I14" t="n">
         <v>163.6851955497072</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1666,16 +1666,16 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>166.3971148792506</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1697,13 +1697,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>124.3670544821615</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H15" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>67.03858805571426</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>159.6212195484502</v>
@@ -1742,7 +1742,7 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8986597023843</v>
+        <v>28.62276946212386</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1754,7 +1754,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1776,19 +1776,19 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>36.48436605884934</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1824,16 +1824,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>110.9705324835873</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1855,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I17" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S17" t="n">
         <v>181.3631617334038</v>
@@ -1903,16 +1903,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>271.3563137561288</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>300.0477686892932</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>105.9637990594094</v>
       </c>
       <c r="I18" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,13 +1973,13 @@
         <v>59.83930139749142</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>0.2749539156380569</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U18" t="n">
-        <v>219.9881595201828</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2004,10 +2004,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>86.38845177938596</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>111.060750249129</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>414.089049841944</v>
+        <v>193.2350731282683</v>
       </c>
       <c r="H20" t="n">
         <v>327.0451232326991</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>217.7829317747374</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>341.4820264036168</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2171,16 +2171,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>14.83191020883758</v>
       </c>
       <c r="G21" t="n">
         <v>136.6941370086349</v>
       </c>
       <c r="H21" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T21" t="n">
         <v>197.5472709665096</v>
@@ -2219,7 +2219,7 @@
         <v>225.8986597023843</v>
       </c>
       <c r="V21" t="n">
-        <v>89.18211739820566</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -2244,19 +2244,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>114.7943575370064</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2298,13 +2298,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>43.0321874990911</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>44.24641575492652</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>275.197063589395</v>
       </c>
       <c r="I23" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U23" t="n">
         <v>251.2485578939812</v>
@@ -2380,13 +2380,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2411,13 +2411,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,13 +2444,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>53.92880121529013</v>
+        <v>6.456834824088546</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U24" t="n">
         <v>225.8986597023843</v>
@@ -2478,13 +2478,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>122.5415447766139</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>86.58819153171376</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2563,19 +2563,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>312.7862116159819</v>
+        <v>315.2474441690782</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>217.7829317747374</v>
@@ -2614,16 +2614,16 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2642,16 +2642,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>143.3680272159724</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>6.45683482408856</v>
       </c>
       <c r="H27" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>159.6212195484502</v>
@@ -2721,16 +2721,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>83.99752067737354</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>268.7418428881282</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,25 +2794,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>387.6097652493364</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>414.089049841944</v>
+        <v>244.6518524849019</v>
       </c>
       <c r="H29" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I29" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,16 +2845,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2882,16 +2882,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>78.30557825330763</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>59.83930139749142</v>
+        <v>6.456834824088546</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T30" t="n">
         <v>197.5472709665096</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>43.26585203414595</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>115.1165353722833</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3034,22 +3034,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>52.8934935707792</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>160.6675939186692</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H32" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3085,13 +3085,13 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3113,22 +3113,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>78.70529233151301</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>105.9637990594094</v>
+        <v>91.6867458199809</v>
       </c>
       <c r="I33" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>88.90986270619095</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>115.1165353722836</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>178.6978722135306</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3313,25 +3313,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>89.17233976177307</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3359,13 +3359,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,16 +3392,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T36" t="n">
-        <v>53.92880121529013</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8986597023843</v>
+        <v>172.5161931289813</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>176.8310480250585</v>
+        <v>16.60419956430029</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3505,16 +3505,16 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>62.50038840473182</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>275.8391042913461</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>414.089049841944</v>
@@ -3550,25 +3550,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3593,10 +3593,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>91.6867458199809</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>6.45683482408856</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>159.6212195484502</v>
@@ -3666,19 +3666,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>108.4139646074103</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>43.35606979968811</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3745,16 +3745,16 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>347.3669805721898</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>3.016206751980667</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3833,13 +3833,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,13 +3869,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>159.6212195484502</v>
+        <v>29.38391736390425</v>
       </c>
       <c r="T42" t="n">
         <v>197.5472709665096</v>
       </c>
       <c r="U42" t="n">
-        <v>165.3169064707586</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S43" t="n">
         <v>214.5288682289405</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>187.9216174196134</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>54.44663919424258</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3979,10 +3979,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>358.619576408006</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3991,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>158.0264865139054</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4024,22 +4024,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4067,7 +4067,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>91.6867458199809</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4112,7 +4112,7 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8986597023843</v>
+        <v>172.5161931289813</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>78.96773836406949</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>139.0783256288915</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>16.83786409935511</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W2" t="n">
-        <v>477.1596022224361</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X2" t="n">
-        <v>233.7108255783361</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>878.2251822441752</v>
+        <v>433.7223438482202</v>
       </c>
       <c r="C3" t="n">
-        <v>703.7721529630483</v>
+        <v>259.2693145670932</v>
       </c>
       <c r="D3" t="n">
-        <v>554.837743301797</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E3" t="n">
-        <v>395.6002882963414</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F3" t="n">
-        <v>249.0657303232264</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G3" t="n">
         <v>110.334904905842</v>
@@ -4415,10 +4415,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>304.2053859195205</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N3" t="n">
         <v>542.809531908403</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>809.6979796332421</v>
       </c>
       <c r="Y3" t="n">
-        <v>964.0571555106362</v>
+        <v>601.9376808682882</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J4" t="n">
         <v>41.77557929797318</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19.28114311021272</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C5" t="n">
-        <v>19.28114311021272</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="D5" t="n">
-        <v>19.28114311021272</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>97.60815526925295</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4597,22 +4597,22 @@
         <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>366.1018663125844</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U5" t="n">
-        <v>122.6530896684844</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V5" t="n">
-        <v>19.28114311021272</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W5" t="n">
-        <v>19.28114311021272</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X5" t="n">
-        <v>19.28114311021272</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y5" t="n">
-        <v>19.28114311021272</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>964.0571555106362</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="C6" t="n">
-        <v>789.6041262295092</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="D6" t="n">
-        <v>640.669716568258</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E6" t="n">
-        <v>481.4322615628025</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F6" t="n">
-        <v>334.8977035896875</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G6" t="n">
-        <v>196.166878172303</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>82.7977425798823</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>374.6018090363993</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
         <v>964.0571555106362</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="X6" t="n">
-        <v>964.0571555106362</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="Y6" t="n">
-        <v>964.0571555106362</v>
+        <v>246.5578745174942</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
         <v>41.77557929797318</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.28114311021272</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="C8" t="n">
-        <v>19.28114311021272</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="D8" t="n">
-        <v>19.28114311021272</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="E8" t="n">
-        <v>19.28114311021272</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T8" t="n">
-        <v>366.1018663125844</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U8" t="n">
-        <v>122.6530896684844</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V8" t="n">
-        <v>19.28114311021272</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="W8" t="n">
-        <v>19.28114311021272</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="X8" t="n">
-        <v>19.28114311021272</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="Y8" t="n">
-        <v>19.28114311021272</v>
+        <v>281.7454097505996</v>
       </c>
     </row>
     <row r="9">
@@ -4859,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>964.0571555106362</v>
+        <v>754.7601307206374</v>
       </c>
       <c r="C9" t="n">
-        <v>789.6041262295092</v>
+        <v>580.3071014395105</v>
       </c>
       <c r="D9" t="n">
-        <v>640.669716568258</v>
+        <v>431.3726917782591</v>
       </c>
       <c r="E9" t="n">
-        <v>481.4322615628025</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="F9" t="n">
-        <v>361.6807332628614</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G9" t="n">
-        <v>222.9499078454769</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H9" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>473.4149733950735</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N9" t="n">
         <v>473.4149733950735</v>
@@ -4916,19 +4916,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>922.9754677407054</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>922.9754677407054</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>922.9754677407054</v>
       </c>
       <c r="X9" t="n">
-        <v>964.0571555106362</v>
+        <v>922.9754677407054</v>
       </c>
       <c r="Y9" t="n">
-        <v>964.0571555106362</v>
+        <v>922.9754677407054</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
         <v>41.77557929797318</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>556.1146817709025</v>
+        <v>1490.260073913009</v>
       </c>
       <c r="C11" t="n">
-        <v>187.1521648304908</v>
+        <v>1121.297556972598</v>
       </c>
       <c r="D11" t="n">
-        <v>46.89499644164432</v>
+        <v>763.0318583658473</v>
       </c>
       <c r="E11" t="n">
-        <v>46.89499644164432</v>
+        <v>377.243605767603</v>
       </c>
       <c r="F11" t="n">
-        <v>46.89499644164432</v>
+        <v>377.243605767603</v>
       </c>
       <c r="G11" t="n">
-        <v>46.89499644164432</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H11" t="n">
         <v>46.89499644164432</v>
@@ -5044,10 +5044,10 @@
         <v>137.0453218915536</v>
       </c>
       <c r="K11" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275678</v>
       </c>
       <c r="L11" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M11" t="n">
         <v>1190.549107376119</v>
@@ -5065,28 +5065,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R11" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S11" t="n">
-        <v>2087.181164129222</v>
+        <v>2216.494487444204</v>
       </c>
       <c r="T11" t="n">
-        <v>1867.1984047608</v>
+        <v>2216.494487444204</v>
       </c>
       <c r="U11" t="n">
-        <v>1613.411982645667</v>
+        <v>2216.494487444204</v>
       </c>
       <c r="V11" t="n">
-        <v>1282.349095302096</v>
+        <v>2216.494487444204</v>
       </c>
       <c r="W11" t="n">
-        <v>929.5804400319823</v>
+        <v>1863.725832174089</v>
       </c>
       <c r="X11" t="n">
-        <v>556.1146817709025</v>
+        <v>1490.260073913009</v>
       </c>
       <c r="Y11" t="n">
-        <v>556.1146817709025</v>
+        <v>1490.260073913009</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>622.1327649551154</v>
+        <v>682.5765037404603</v>
       </c>
       <c r="C12" t="n">
-        <v>447.6797356739884</v>
+        <v>508.1234744593334</v>
       </c>
       <c r="D12" t="n">
-        <v>298.7453260127371</v>
+        <v>508.1234744593334</v>
       </c>
       <c r="E12" t="n">
-        <v>139.5078710072816</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="F12" t="n">
-        <v>46.89499644164432</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G12" t="n">
-        <v>46.89499644164432</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H12" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I12" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J12" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K12" t="n">
-        <v>121.6684232076319</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L12" t="n">
-        <v>491.2196383161158</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M12" t="n">
-        <v>974.4476973832902</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N12" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O12" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P12" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q12" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R12" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S12" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T12" t="n">
-        <v>1923.529830251457</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U12" t="n">
-        <v>1695.349365905614</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V12" t="n">
-        <v>1460.197257673872</v>
+        <v>1520.640996459217</v>
       </c>
       <c r="W12" t="n">
-        <v>1205.95990094567</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="X12" t="n">
-        <v>998.1084007401373</v>
+        <v>1058.552139525482</v>
       </c>
       <c r="Y12" t="n">
-        <v>790.3481019751835</v>
+        <v>850.7918407605284</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C13" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D13" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E13" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F13" t="n">
-        <v>570.9156784273715</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G13" t="n">
-        <v>401.7777381738809</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H13" t="n">
-        <v>242.8011754972942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I13" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J13" t="n">
         <v>46.89499644164432</v>
@@ -5205,46 +5205,46 @@
         <v>87.46721626702976</v>
       </c>
       <c r="L13" t="n">
-        <v>194.9121237200978</v>
+        <v>194.9121237200977</v>
       </c>
       <c r="M13" t="n">
-        <v>318.5868368362075</v>
+        <v>318.5868368362074</v>
       </c>
       <c r="N13" t="n">
-        <v>444.7554581228448</v>
+        <v>444.7554581228447</v>
       </c>
       <c r="O13" t="n">
-        <v>545.2763053496715</v>
+        <v>545.2763053496714</v>
       </c>
       <c r="P13" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Q13" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="R13" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="S13" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="T13" t="n">
-        <v>607.7685734363102</v>
+        <v>379.8701515943956</v>
       </c>
       <c r="U13" t="n">
-        <v>607.7685734363102</v>
+        <v>90.68900634031866</v>
       </c>
       <c r="V13" t="n">
-        <v>607.7685734363102</v>
+        <v>90.68900634031866</v>
       </c>
       <c r="W13" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X13" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y13" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>646.4021652066779</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="C14" t="n">
-        <v>646.4021652066779</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="D14" t="n">
-        <v>646.4021652066779</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="E14" t="n">
-        <v>646.4021652066779</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="F14" t="n">
-        <v>235.4162604170703</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="G14" t="n">
-        <v>235.4162604170703</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H14" t="n">
         <v>212.2335778049849</v>
@@ -5278,16 +5278,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J14" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K14" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L14" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M14" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N14" t="n">
         <v>1610.799342072557</v>
@@ -5302,28 +5302,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R14" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S14" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T14" t="n">
-        <v>2050.393517622824</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="U14" t="n">
-        <v>1796.607095507691</v>
+        <v>1870.980640598662</v>
       </c>
       <c r="V14" t="n">
-        <v>1796.607095507691</v>
+        <v>1539.917753255091</v>
       </c>
       <c r="W14" t="n">
-        <v>1796.607095507691</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="X14" t="n">
-        <v>1423.141337246611</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="Y14" t="n">
-        <v>1033.0020052708</v>
+        <v>1371.839859437666</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>829.8930637200692</v>
+        <v>881.8450797407235</v>
       </c>
       <c r="C15" t="n">
-        <v>655.4400344389422</v>
+        <v>707.3920504595965</v>
       </c>
       <c r="D15" t="n">
-        <v>506.505624777691</v>
+        <v>558.4576407983452</v>
       </c>
       <c r="E15" t="n">
-        <v>347.2681697722355</v>
+        <v>399.2201857928898</v>
       </c>
       <c r="F15" t="n">
-        <v>221.6448824165167</v>
+        <v>252.6856278197748</v>
       </c>
       <c r="G15" t="n">
-        <v>221.6448824165167</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="H15" t="n">
         <v>114.6107419524668</v>
@@ -5375,34 +5375,34 @@
         <v>2102.280527752458</v>
       </c>
       <c r="P15" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q15" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R15" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S15" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T15" t="n">
-        <v>1923.529830251457</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U15" t="n">
-        <v>1695.349365905614</v>
+        <v>1955.061680691222</v>
       </c>
       <c r="V15" t="n">
-        <v>1460.197257673872</v>
+        <v>1719.90957245948</v>
       </c>
       <c r="W15" t="n">
-        <v>1205.95990094567</v>
+        <v>1465.672215731278</v>
       </c>
       <c r="X15" t="n">
-        <v>998.1084007401373</v>
+        <v>1257.820715525745</v>
       </c>
       <c r="Y15" t="n">
-        <v>998.1084007401373</v>
+        <v>1050.060416760791</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C16" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D16" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E16" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F16" t="n">
-        <v>570.9156784273715</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G16" t="n">
-        <v>401.7777381738809</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H16" t="n">
-        <v>242.8011754972942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I16" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J16" t="n">
         <v>46.89499644164432</v>
@@ -5472,16 +5472,16 @@
         <v>607.7685734363102</v>
       </c>
       <c r="V16" t="n">
-        <v>607.7685734363102</v>
+        <v>495.6771264831918</v>
       </c>
       <c r="W16" t="n">
-        <v>607.7685734363102</v>
+        <v>495.6771264831918</v>
       </c>
       <c r="X16" t="n">
-        <v>607.7685734363102</v>
+        <v>267.6875755851744</v>
       </c>
       <c r="Y16" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>581.1960947453966</v>
+        <v>1206.501278074326</v>
       </c>
       <c r="C17" t="n">
-        <v>212.2335778049849</v>
+        <v>1206.501278074326</v>
       </c>
       <c r="D17" t="n">
-        <v>212.2335778049849</v>
+        <v>1206.501278074326</v>
       </c>
       <c r="E17" t="n">
-        <v>212.2335778049849</v>
+        <v>1206.501278074326</v>
       </c>
       <c r="F17" t="n">
-        <v>212.2335778049849</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="G17" t="n">
-        <v>212.2335778049849</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H17" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I17" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J17" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K17" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L17" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M17" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N17" t="n">
         <v>1610.799342072557</v>
@@ -5539,28 +5539,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R17" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S17" t="n">
-        <v>2161.554709220192</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T17" t="n">
-        <v>1941.571949851771</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U17" t="n">
-        <v>1941.571949851771</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="V17" t="n">
-        <v>1610.5090625082</v>
+        <v>1593.101118138447</v>
       </c>
       <c r="W17" t="n">
-        <v>1257.740407238086</v>
+        <v>1593.101118138447</v>
       </c>
       <c r="X17" t="n">
-        <v>884.2746489770059</v>
+        <v>1593.101118138447</v>
       </c>
       <c r="Y17" t="n">
-        <v>581.1960947453966</v>
+        <v>1593.101118138447</v>
       </c>
     </row>
     <row r="18">
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.8792202047736</v>
+        <v>783.0885888266431</v>
       </c>
       <c r="C18" t="n">
-        <v>814.4261909236466</v>
+        <v>608.6355595455161</v>
       </c>
       <c r="D18" t="n">
-        <v>665.4917812623953</v>
+        <v>459.7011498842648</v>
       </c>
       <c r="E18" t="n">
-        <v>506.2543262569397</v>
+        <v>300.4636948788093</v>
       </c>
       <c r="F18" t="n">
-        <v>359.7197682838247</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="G18" t="n">
-        <v>221.6448824165167</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H18" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I18" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J18" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K18" t="n">
-        <v>336.0641406922996</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L18" t="n">
-        <v>705.6153558007836</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M18" t="n">
-        <v>1125.906134925503</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N18" t="n">
-        <v>1637.630816213677</v>
+        <v>1640.568559592725</v>
       </c>
       <c r="O18" t="n">
-        <v>2039.343247810003</v>
+        <v>1889.321973676688</v>
       </c>
       <c r="P18" t="n">
-        <v>2344.749822082216</v>
+        <v>2194.728547948901</v>
       </c>
       <c r="Q18" t="n">
         <v>2344.749822082216</v>
@@ -5621,25 +5621,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S18" t="n">
-        <v>2284.306083296871</v>
+        <v>2284.028352068954</v>
       </c>
       <c r="T18" t="n">
-        <v>2284.306083296871</v>
+        <v>2084.485654122985</v>
       </c>
       <c r="U18" t="n">
-        <v>2062.095821155272</v>
+        <v>1856.305189777142</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.94371292353</v>
+        <v>1621.153081545399</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.706356195328</v>
+        <v>1366.915724817198</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.854855989795</v>
+        <v>1159.064224611665</v>
       </c>
       <c r="Y18" t="n">
-        <v>1157.094557224842</v>
+        <v>951.3039258467111</v>
       </c>
     </row>
     <row r="19">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>453.4106385108907</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C19" t="n">
-        <v>366.1495761074706</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D19" t="n">
-        <v>216.0329366951349</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E19" t="n">
-        <v>216.0329366951349</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F19" t="n">
-        <v>216.0329366951349</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G19" t="n">
         <v>46.89499644164432</v>
@@ -5697,28 +5697,28 @@
         <v>607.7685734363102</v>
       </c>
       <c r="R19" t="n">
-        <v>453.4106385108907</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S19" t="n">
-        <v>453.4106385108907</v>
+        <v>495.585997427089</v>
       </c>
       <c r="T19" t="n">
-        <v>453.4106385108907</v>
+        <v>267.6875755851744</v>
       </c>
       <c r="U19" t="n">
-        <v>453.4106385108907</v>
+        <v>267.6875755851744</v>
       </c>
       <c r="V19" t="n">
-        <v>453.4106385108907</v>
+        <v>267.6875755851744</v>
       </c>
       <c r="W19" t="n">
-        <v>453.4106385108907</v>
+        <v>267.6875755851744</v>
       </c>
       <c r="X19" t="n">
-        <v>453.4106385108907</v>
+        <v>267.6875755851744</v>
       </c>
       <c r="Y19" t="n">
-        <v>453.4106385108907</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1206.501278074326</v>
+        <v>1738.167222649673</v>
       </c>
       <c r="C20" t="n">
-        <v>1206.501278074326</v>
+        <v>1369.204705709261</v>
       </c>
       <c r="D20" t="n">
-        <v>1206.501278074326</v>
+        <v>1369.204705709261</v>
       </c>
       <c r="E20" t="n">
-        <v>1206.501278074326</v>
+        <v>983.4164531110168</v>
       </c>
       <c r="F20" t="n">
-        <v>795.5153732847182</v>
+        <v>572.4305483214093</v>
       </c>
       <c r="G20" t="n">
         <v>377.243605767603</v>
@@ -5752,10 +5752,10 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J20" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K20" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L20" t="n">
         <v>762.5916738244549</v>
@@ -5779,25 +5779,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S20" t="n">
-        <v>2161.554709220192</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T20" t="n">
-        <v>1941.571949851771</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="U20" t="n">
-        <v>1941.571949851771</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="V20" t="n">
-        <v>1941.571949851771</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="W20" t="n">
-        <v>1596.640610050137</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="X20" t="n">
-        <v>1596.640610050137</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="Y20" t="n">
-        <v>1206.501278074326</v>
+        <v>2124.767062713795</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.8792202047736</v>
+        <v>682.5765037404603</v>
       </c>
       <c r="C21" t="n">
-        <v>814.4261909236466</v>
+        <v>508.1234744593334</v>
       </c>
       <c r="D21" t="n">
-        <v>665.4917812623953</v>
+        <v>359.1890647980821</v>
       </c>
       <c r="E21" t="n">
-        <v>506.2543262569397</v>
+        <v>199.9516097926266</v>
       </c>
       <c r="F21" t="n">
-        <v>359.7197682838247</v>
+        <v>184.9698823089523</v>
       </c>
       <c r="G21" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H21" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I21" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J21" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K21" t="n">
-        <v>273.1268607498447</v>
+        <v>244.4315198664946</v>
       </c>
       <c r="L21" t="n">
-        <v>642.6780758583286</v>
+        <v>613.9827349749785</v>
       </c>
       <c r="M21" t="n">
-        <v>1125.906134925503</v>
+        <v>1097.210794042153</v>
       </c>
       <c r="N21" t="n">
-        <v>1637.630816213677</v>
+        <v>1608.935475330326</v>
       </c>
       <c r="O21" t="n">
-        <v>2039.343247810003</v>
+        <v>2010.647906926653</v>
       </c>
       <c r="P21" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q21" t="n">
         <v>2344.749822082216</v>
@@ -5858,25 +5858,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S21" t="n">
-        <v>2344.749822082216</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T21" t="n">
-        <v>2145.207124136247</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U21" t="n">
-        <v>1917.026659790404</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.94371292353</v>
+        <v>1520.640996459217</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.706356195328</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.854855989795</v>
+        <v>1058.552139525482</v>
       </c>
       <c r="Y21" t="n">
-        <v>1157.094557224842</v>
+        <v>850.7918407605284</v>
       </c>
     </row>
     <row r="22">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="C22" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="D22" t="n">
-        <v>46.89499644164432</v>
+        <v>457.6519340239745</v>
       </c>
       <c r="E22" t="n">
-        <v>46.89499644164432</v>
+        <v>309.7388404415814</v>
       </c>
       <c r="F22" t="n">
-        <v>46.89499644164432</v>
+        <v>162.848892943671</v>
       </c>
       <c r="G22" t="n">
-        <v>46.89499644164432</v>
+        <v>162.848892943671</v>
       </c>
       <c r="H22" t="n">
         <v>46.89499644164432</v>
@@ -5946,16 +5946,16 @@
         <v>607.7685734363102</v>
       </c>
       <c r="V22" t="n">
-        <v>564.3017173766223</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W22" t="n">
-        <v>274.8845473396617</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X22" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
     </row>
     <row r="23">
@@ -5965,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>256.9269270523855</v>
+        <v>1539.917753255091</v>
       </c>
       <c r="C23" t="n">
-        <v>212.2335778049849</v>
+        <v>1539.917753255091</v>
       </c>
       <c r="D23" t="n">
-        <v>212.2335778049849</v>
+        <v>1539.917753255091</v>
       </c>
       <c r="E23" t="n">
-        <v>212.2335778049849</v>
+        <v>1154.129500656847</v>
       </c>
       <c r="F23" t="n">
-        <v>212.2335778049849</v>
+        <v>743.1435958672394</v>
       </c>
       <c r="G23" t="n">
-        <v>212.2335778049849</v>
+        <v>324.8718283501242</v>
       </c>
       <c r="H23" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I23" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J23" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K23" t="n">
         <v>392.9020949275675</v>
       </c>
       <c r="L23" t="n">
-        <v>762.5916738244549</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M23" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N23" t="n">
         <v>1610.799342072557</v>
@@ -6019,22 +6019,22 @@
         <v>2344.749822082216</v>
       </c>
       <c r="T23" t="n">
-        <v>2344.749822082216</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="U23" t="n">
-        <v>2090.963399967084</v>
+        <v>1870.980640598662</v>
       </c>
       <c r="V23" t="n">
-        <v>1759.900512623513</v>
+        <v>1539.917753255091</v>
       </c>
       <c r="W23" t="n">
-        <v>1407.131857353399</v>
+        <v>1539.917753255091</v>
       </c>
       <c r="X23" t="n">
-        <v>1033.666099092319</v>
+        <v>1539.917753255091</v>
       </c>
       <c r="Y23" t="n">
-        <v>643.5267671165072</v>
+        <v>1539.917753255091</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.8792202047736</v>
+        <v>676.0544483625931</v>
       </c>
       <c r="C24" t="n">
-        <v>814.4261909236466</v>
+        <v>501.6014190814661</v>
       </c>
       <c r="D24" t="n">
-        <v>665.4917812623953</v>
+        <v>352.6670094202149</v>
       </c>
       <c r="E24" t="n">
-        <v>506.2543262569397</v>
+        <v>193.4295544147594</v>
       </c>
       <c r="F24" t="n">
-        <v>359.7197682838247</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G24" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H24" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I24" t="n">
         <v>46.89499644164432</v>
@@ -6071,49 +6071,49 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K24" t="n">
-        <v>121.6684232076319</v>
+        <v>232.2520930628877</v>
       </c>
       <c r="L24" t="n">
-        <v>491.2196383161158</v>
+        <v>601.8033081713716</v>
       </c>
       <c r="M24" t="n">
-        <v>974.4476973832902</v>
+        <v>1085.031367238546</v>
       </c>
       <c r="N24" t="n">
-        <v>1486.172378671464</v>
+        <v>1596.756048526719</v>
       </c>
       <c r="O24" t="n">
-        <v>1887.88481026779</v>
+        <v>1998.468480123046</v>
       </c>
       <c r="P24" t="n">
-        <v>2193.291384540003</v>
+        <v>2275.355263568887</v>
       </c>
       <c r="Q24" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R24" t="n">
-        <v>2290.276285501115</v>
+        <v>2338.227766704349</v>
       </c>
       <c r="S24" t="n">
-        <v>2290.276285501115</v>
+        <v>2176.994211604904</v>
       </c>
       <c r="T24" t="n">
-        <v>2290.276285501115</v>
+        <v>1977.451513658935</v>
       </c>
       <c r="U24" t="n">
-        <v>2062.095821155272</v>
+        <v>1749.271049313092</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.94371292353</v>
+        <v>1514.118941081349</v>
       </c>
       <c r="W24" t="n">
-        <v>1572.706356195328</v>
+        <v>1259.881584353148</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.854855989795</v>
+        <v>1052.030084147615</v>
       </c>
       <c r="Y24" t="n">
-        <v>1157.094557224842</v>
+        <v>844.2697853826612</v>
       </c>
     </row>
     <row r="25">
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>318.5874281822333</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="C25" t="n">
-        <v>318.5874281822333</v>
+        <v>284.4744555829839</v>
       </c>
       <c r="D25" t="n">
-        <v>194.8080900240374</v>
+        <v>134.3578161706481</v>
       </c>
       <c r="E25" t="n">
         <v>46.89499644164432</v>
@@ -6171,28 +6171,28 @@
         <v>607.7685734363102</v>
       </c>
       <c r="R25" t="n">
-        <v>607.7685734363102</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="S25" t="n">
-        <v>607.7685734363102</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="T25" t="n">
-        <v>607.7685734363102</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="U25" t="n">
-        <v>318.5874281822333</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="V25" t="n">
-        <v>318.5874281822333</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="W25" t="n">
-        <v>318.5874281822333</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="X25" t="n">
-        <v>318.5874281822333</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="Y25" t="n">
-        <v>318.5874281822333</v>
+        <v>453.4106385108907</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1687.785527736638</v>
+        <v>776.3126630181996</v>
       </c>
       <c r="C26" t="n">
-        <v>1687.785527736638</v>
+        <v>776.3126630181996</v>
       </c>
       <c r="D26" t="n">
-        <v>1687.785527736638</v>
+        <v>776.3126630181996</v>
       </c>
       <c r="E26" t="n">
-        <v>1371.839859437666</v>
+        <v>457.8809012312519</v>
       </c>
       <c r="F26" t="n">
-        <v>960.8539546480588</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G26" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H26" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I26" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J26" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K26" t="n">
-        <v>392.9020949275678</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L26" t="n">
-        <v>762.5916738244551</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M26" t="n">
         <v>1190.549107376119</v>
@@ -6253,25 +6253,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S26" t="n">
-        <v>2161.554709220192</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T26" t="n">
-        <v>1941.571949851771</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="U26" t="n">
-        <v>1687.785527736638</v>
+        <v>1870.980640598662</v>
       </c>
       <c r="V26" t="n">
-        <v>1687.785527736638</v>
+        <v>1539.917753255091</v>
       </c>
       <c r="W26" t="n">
-        <v>1687.785527736638</v>
+        <v>1539.917753255091</v>
       </c>
       <c r="X26" t="n">
-        <v>1687.785527736638</v>
+        <v>1166.451994994011</v>
       </c>
       <c r="Y26" t="n">
-        <v>1687.785527736638</v>
+        <v>776.3126630181996</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>622.1327649551154</v>
+        <v>682.5765037404603</v>
       </c>
       <c r="C27" t="n">
-        <v>447.6797356739884</v>
+        <v>508.1234744593334</v>
       </c>
       <c r="D27" t="n">
-        <v>298.7453260127371</v>
+        <v>359.1890647980821</v>
       </c>
       <c r="E27" t="n">
-        <v>153.9291369056942</v>
+        <v>199.9516097926266</v>
       </c>
       <c r="F27" t="n">
-        <v>153.9291369056942</v>
+        <v>53.41705181951156</v>
       </c>
       <c r="G27" t="n">
-        <v>153.9291369056942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H27" t="n">
         <v>46.89499644164432</v>
@@ -6305,52 +6305,52 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J27" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K27" t="n">
-        <v>273.1268607498447</v>
+        <v>232.2520930628877</v>
       </c>
       <c r="L27" t="n">
-        <v>642.6780758583286</v>
+        <v>601.8033081713716</v>
       </c>
       <c r="M27" t="n">
-        <v>1125.906134925503</v>
+        <v>1085.031367238546</v>
       </c>
       <c r="N27" t="n">
-        <v>1637.630816213677</v>
+        <v>1596.756048526719</v>
       </c>
       <c r="O27" t="n">
-        <v>2039.343247810003</v>
+        <v>1998.468480123046</v>
       </c>
       <c r="P27" t="n">
-        <v>2344.749822082216</v>
+        <v>2275.355263568887</v>
       </c>
       <c r="Q27" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R27" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S27" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T27" t="n">
-        <v>1923.529830251457</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U27" t="n">
-        <v>1695.349365905614</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V27" t="n">
-        <v>1460.197257673872</v>
+        <v>1520.640996459217</v>
       </c>
       <c r="W27" t="n">
-        <v>1205.95990094567</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="X27" t="n">
-        <v>998.1084007401373</v>
+        <v>1058.552139525482</v>
       </c>
       <c r="Y27" t="n">
-        <v>790.3481019751835</v>
+        <v>850.7918407605284</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C28" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D28" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E28" t="n">
-        <v>459.8554798539171</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F28" t="n">
-        <v>375.0094993717216</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G28" t="n">
-        <v>205.8715591182311</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H28" t="n">
         <v>46.89499644164432</v>
@@ -6417,19 +6417,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="U28" t="n">
-        <v>607.7685734363102</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="V28" t="n">
-        <v>607.7685734363102</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="W28" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X28" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y28" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1738.167222649673</v>
+        <v>1351.594904632848</v>
       </c>
       <c r="C29" t="n">
-        <v>1738.167222649673</v>
+        <v>982.6323876924362</v>
       </c>
       <c r="D29" t="n">
-        <v>1738.167222649673</v>
+        <v>624.3666890856857</v>
       </c>
       <c r="E29" t="n">
-        <v>1352.378970051429</v>
+        <v>624.3666890856857</v>
       </c>
       <c r="F29" t="n">
-        <v>960.8539546480588</v>
+        <v>624.3666890856857</v>
       </c>
       <c r="G29" t="n">
-        <v>542.5821871309436</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H29" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I29" t="n">
         <v>46.89499644164432</v>
@@ -6484,31 +6484,31 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q29" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R29" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S29" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T29" t="n">
-        <v>2124.767062713795</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U29" t="n">
-        <v>2124.767062713795</v>
+        <v>2090.963399967084</v>
       </c>
       <c r="V29" t="n">
-        <v>2124.767062713795</v>
+        <v>2090.963399967084</v>
       </c>
       <c r="W29" t="n">
-        <v>2124.767062713795</v>
+        <v>1738.19474469697</v>
       </c>
       <c r="X29" t="n">
-        <v>2124.767062713795</v>
+        <v>1738.19474469697</v>
       </c>
       <c r="Y29" t="n">
-        <v>2124.767062713795</v>
+        <v>1738.19474469697</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>783.3663200545602</v>
+        <v>676.0544483625931</v>
       </c>
       <c r="C30" t="n">
-        <v>608.9132907734332</v>
+        <v>501.6014190814661</v>
       </c>
       <c r="D30" t="n">
-        <v>459.978881112182</v>
+        <v>352.6670094202149</v>
       </c>
       <c r="E30" t="n">
-        <v>300.7414261067265</v>
+        <v>193.4295544147594</v>
       </c>
       <c r="F30" t="n">
-        <v>300.7414261067265</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G30" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H30" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I30" t="n">
         <v>46.89499644164432</v>
@@ -6545,19 +6545,19 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K30" t="n">
-        <v>276.0646041288937</v>
+        <v>172.2525564994817</v>
       </c>
       <c r="L30" t="n">
-        <v>645.6158192373775</v>
+        <v>541.8037716079657</v>
       </c>
       <c r="M30" t="n">
-        <v>1128.843878304552</v>
+        <v>1025.03183067514</v>
       </c>
       <c r="N30" t="n">
-        <v>1486.172378671464</v>
+        <v>1536.756511963314</v>
       </c>
       <c r="O30" t="n">
-        <v>1887.88481026779</v>
+        <v>1938.46894355964</v>
       </c>
       <c r="P30" t="n">
         <v>2193.291384540003</v>
@@ -6566,28 +6566,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R30" t="n">
-        <v>2284.306083296871</v>
+        <v>2338.227766704349</v>
       </c>
       <c r="S30" t="n">
-        <v>2284.306083296871</v>
+        <v>2176.994211604904</v>
       </c>
       <c r="T30" t="n">
-        <v>2084.763385350902</v>
+        <v>1977.451513658935</v>
       </c>
       <c r="U30" t="n">
-        <v>1856.582921005059</v>
+        <v>1749.271049313092</v>
       </c>
       <c r="V30" t="n">
-        <v>1621.430812773317</v>
+        <v>1514.118941081349</v>
       </c>
       <c r="W30" t="n">
-        <v>1367.193456045115</v>
+        <v>1259.881584353148</v>
       </c>
       <c r="X30" t="n">
-        <v>1159.341955839582</v>
+        <v>1052.030084147615</v>
       </c>
       <c r="Y30" t="n">
-        <v>951.5816570746283</v>
+        <v>844.2697853826612</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>90.597877284216</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C31" t="n">
-        <v>90.597877284216</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D31" t="n">
-        <v>90.597877284216</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E31" t="n">
-        <v>90.597877284216</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F31" t="n">
-        <v>90.597877284216</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G31" t="n">
-        <v>90.597877284216</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H31" t="n">
-        <v>90.597877284216</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I31" t="n">
         <v>46.89499644164432</v>
@@ -6645,28 +6645,28 @@
         <v>607.7685734363102</v>
       </c>
       <c r="R31" t="n">
-        <v>607.7685734363102</v>
+        <v>491.4892447774382</v>
       </c>
       <c r="S31" t="n">
-        <v>607.7685734363102</v>
+        <v>274.7934182835589</v>
       </c>
       <c r="T31" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="U31" t="n">
-        <v>318.5874281822333</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="V31" t="n">
-        <v>318.5874281822333</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="W31" t="n">
-        <v>318.5874281822333</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X31" t="n">
-        <v>90.597877284216</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y31" t="n">
-        <v>90.597877284216</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1867.1984047608</v>
+        <v>929.5804400319823</v>
       </c>
       <c r="C32" t="n">
-        <v>1867.1984047608</v>
+        <v>929.5804400319823</v>
       </c>
       <c r="D32" t="n">
-        <v>1508.93270615405</v>
+        <v>876.152668748367</v>
       </c>
       <c r="E32" t="n">
-        <v>1123.144453555806</v>
+        <v>876.152668748367</v>
       </c>
       <c r="F32" t="n">
-        <v>960.8539546480588</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G32" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H32" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I32" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J32" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K32" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L32" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M32" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N32" t="n">
         <v>1610.799342072557</v>
@@ -6721,7 +6721,7 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q32" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R32" t="n">
         <v>2270.376276991246</v>
@@ -6733,19 +6733,19 @@
         <v>1867.1984047608</v>
       </c>
       <c r="U32" t="n">
-        <v>1867.1984047608</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="V32" t="n">
-        <v>1867.1984047608</v>
+        <v>1282.349095302096</v>
       </c>
       <c r="W32" t="n">
-        <v>1867.1984047608</v>
+        <v>929.5804400319823</v>
       </c>
       <c r="X32" t="n">
-        <v>1867.1984047608</v>
+        <v>929.5804400319823</v>
       </c>
       <c r="Y32" t="n">
-        <v>1867.1984047608</v>
+        <v>929.5804400319823</v>
       </c>
     </row>
     <row r="33">
@@ -6761,43 +6761,43 @@
         <v>447.6797356739884</v>
       </c>
       <c r="D33" t="n">
-        <v>447.6797356739884</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E33" t="n">
-        <v>447.6797356739884</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="F33" t="n">
-        <v>301.1451777008733</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="G33" t="n">
-        <v>221.6448824165167</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="H33" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I33" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J33" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K33" t="n">
-        <v>172.2525564994817</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L33" t="n">
-        <v>541.8037716079657</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M33" t="n">
-        <v>1025.03183067514</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N33" t="n">
-        <v>1536.756511963314</v>
+        <v>1700.568096156132</v>
       </c>
       <c r="O33" t="n">
-        <v>1938.46894355964</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P33" t="n">
-        <v>2243.875517831853</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q33" t="n">
         <v>2344.749822082216</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1783.87624508755</v>
+        <v>136.7029385691099</v>
       </c>
       <c r="C34" t="n">
-        <v>1783.87624508755</v>
+        <v>136.7029385691099</v>
       </c>
       <c r="D34" t="n">
-        <v>1783.87624508755</v>
+        <v>136.7029385691099</v>
       </c>
       <c r="E34" t="n">
-        <v>1783.87624508755</v>
+        <v>136.7029385691099</v>
       </c>
       <c r="F34" t="n">
-        <v>1783.87624508755</v>
+        <v>136.7029385691099</v>
       </c>
       <c r="G34" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H34" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I34" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J34" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K34" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L34" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M34" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N34" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O34" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P34" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q34" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R34" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S34" t="n">
-        <v>2128.053995588337</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T34" t="n">
-        <v>1900.155573746422</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U34" t="n">
-        <v>1783.87624508755</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V34" t="n">
-        <v>1783.87624508755</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W34" t="n">
-        <v>1783.87624508755</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="X34" t="n">
-        <v>1783.87624508755</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="Y34" t="n">
-        <v>1783.87624508755</v>
+        <v>318.3514033993496</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1056.655569974155</v>
+        <v>1104.471821314765</v>
       </c>
       <c r="C35" t="n">
-        <v>1056.655569974155</v>
+        <v>735.5093043743535</v>
       </c>
       <c r="D35" t="n">
-        <v>1056.655569974155</v>
+        <v>377.243605767603</v>
       </c>
       <c r="E35" t="n">
-        <v>1056.655569974155</v>
+        <v>377.243605767603</v>
       </c>
       <c r="F35" t="n">
-        <v>645.669665184548</v>
+        <v>377.243605767603</v>
       </c>
       <c r="G35" t="n">
-        <v>227.3978976674328</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H35" t="n">
         <v>46.89499644164432</v>
@@ -6937,16 +6937,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J35" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K35" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L35" t="n">
-        <v>762.5916738244551</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M35" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N35" t="n">
         <v>1610.799342072557</v>
@@ -6961,28 +6961,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R35" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S35" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T35" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U35" t="n">
-        <v>1833.394742014089</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V35" t="n">
-        <v>1833.394742014089</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W35" t="n">
-        <v>1833.394742014089</v>
+        <v>2254.676751615779</v>
       </c>
       <c r="X35" t="n">
-        <v>1833.394742014089</v>
+        <v>1881.210993354699</v>
       </c>
       <c r="Y35" t="n">
-        <v>1443.255410038277</v>
+        <v>1491.071661378887</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.8792202047736</v>
+        <v>676.0544483625931</v>
       </c>
       <c r="C36" t="n">
-        <v>814.4261909236466</v>
+        <v>501.6014190814661</v>
       </c>
       <c r="D36" t="n">
-        <v>665.4917812623953</v>
+        <v>352.6670094202149</v>
       </c>
       <c r="E36" t="n">
-        <v>506.2543262569397</v>
+        <v>193.4295544147594</v>
       </c>
       <c r="F36" t="n">
-        <v>359.7197682838247</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G36" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H36" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I36" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J36" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K36" t="n">
-        <v>336.0641406922996</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L36" t="n">
-        <v>705.6153558007836</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M36" t="n">
-        <v>1188.843414867958</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N36" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O36" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P36" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q36" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R36" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S36" t="n">
-        <v>2344.749822082216</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T36" t="n">
-        <v>2290.276285501115</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U36" t="n">
-        <v>2062.095821155272</v>
+        <v>1749.271049313092</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.94371292353</v>
+        <v>1514.118941081349</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.706356195328</v>
+        <v>1259.881584353148</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.854855989795</v>
+        <v>1052.030084147615</v>
       </c>
       <c r="Y36" t="n">
-        <v>1157.094557224842</v>
+        <v>844.2697853826612</v>
       </c>
     </row>
     <row r="37">
@@ -7119,19 +7119,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="R37" t="n">
-        <v>453.4106385108907</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S37" t="n">
-        <v>453.4106385108907</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T37" t="n">
-        <v>225.5122166689762</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U37" t="n">
-        <v>46.89499644164432</v>
+        <v>590.9966546844918</v>
       </c>
       <c r="V37" t="n">
-        <v>46.89499644164432</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="W37" t="n">
         <v>46.89499644164432</v>
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2013.686934738646</v>
+        <v>1459.928983753009</v>
       </c>
       <c r="C38" t="n">
-        <v>1950.55522927932</v>
+        <v>1459.928983753009</v>
       </c>
       <c r="D38" t="n">
-        <v>1592.28953067257</v>
+        <v>1181.303625882962</v>
       </c>
       <c r="E38" t="n">
-        <v>1206.501278074326</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="F38" t="n">
         <v>795.5153732847182</v>
@@ -7174,16 +7174,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J38" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K38" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L38" t="n">
-        <v>762.5916738244549</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M38" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N38" t="n">
         <v>1610.799342072557</v>
@@ -7198,28 +7198,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R38" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S38" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T38" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="U38" t="n">
-        <v>2344.749822082216</v>
+        <v>1833.394742014089</v>
       </c>
       <c r="V38" t="n">
-        <v>2013.686934738646</v>
+        <v>1833.394742014089</v>
       </c>
       <c r="W38" t="n">
-        <v>2013.686934738646</v>
+        <v>1833.394742014089</v>
       </c>
       <c r="X38" t="n">
-        <v>2013.686934738646</v>
+        <v>1459.928983753009</v>
       </c>
       <c r="Y38" t="n">
-        <v>2013.686934738646</v>
+        <v>1459.928983753009</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>622.1327649551154</v>
+        <v>682.5765037404603</v>
       </c>
       <c r="C39" t="n">
-        <v>447.6797356739884</v>
+        <v>508.1234744593334</v>
       </c>
       <c r="D39" t="n">
-        <v>298.7453260127371</v>
+        <v>359.1890647980821</v>
       </c>
       <c r="E39" t="n">
-        <v>139.5078710072816</v>
+        <v>199.9516097926266</v>
       </c>
       <c r="F39" t="n">
-        <v>46.89499644164432</v>
+        <v>53.41705181951156</v>
       </c>
       <c r="G39" t="n">
         <v>46.89499644164432</v>
@@ -7277,28 +7277,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R39" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S39" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T39" t="n">
-        <v>1923.529830251457</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U39" t="n">
-        <v>1695.349365905614</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V39" t="n">
-        <v>1460.197257673872</v>
+        <v>1520.640996459217</v>
       </c>
       <c r="W39" t="n">
-        <v>1205.95990094567</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="X39" t="n">
-        <v>998.1084007401373</v>
+        <v>1058.552139525482</v>
       </c>
       <c r="Y39" t="n">
-        <v>790.3481019751835</v>
+        <v>850.7918407605284</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1783.87624508755</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="C40" t="n">
-        <v>1783.87624508755</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="D40" t="n">
-        <v>1783.87624508755</v>
+        <v>303.293999098555</v>
       </c>
       <c r="E40" t="n">
-        <v>1783.87624508755</v>
+        <v>303.293999098555</v>
       </c>
       <c r="F40" t="n">
-        <v>1783.87624508755</v>
+        <v>156.4040516006446</v>
       </c>
       <c r="G40" t="n">
-        <v>1783.87624508755</v>
+        <v>156.4040516006446</v>
       </c>
       <c r="H40" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I40" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J40" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K40" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L40" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M40" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N40" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O40" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P40" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q40" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R40" t="n">
-        <v>2344.749822082216</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="S40" t="n">
-        <v>2344.749822082216</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="T40" t="n">
-        <v>2116.851400240302</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="U40" t="n">
-        <v>1827.670254986225</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="V40" t="n">
-        <v>1783.87624508755</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="W40" t="n">
-        <v>1783.87624508755</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="X40" t="n">
-        <v>1783.87624508755</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="Y40" t="n">
-        <v>1783.87624508755</v>
+        <v>453.4106385108907</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1194.544891781203</v>
+        <v>823.4324625655099</v>
       </c>
       <c r="C41" t="n">
-        <v>1194.544891781203</v>
+        <v>823.4324625655099</v>
       </c>
       <c r="D41" t="n">
-        <v>843.6691538294961</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="E41" t="n">
-        <v>457.8809012312519</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="F41" t="n">
-        <v>46.89499644164432</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G41" t="n">
         <v>46.89499644164432</v>
@@ -7411,16 +7411,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J41" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K41" t="n">
-        <v>392.9020949275679</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L41" t="n">
-        <v>762.5916738244553</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M41" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N41" t="n">
         <v>1610.799342072557</v>
@@ -7435,28 +7435,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R41" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S41" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T41" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="U41" t="n">
-        <v>2344.749822082216</v>
+        <v>2267.329603504396</v>
       </c>
       <c r="V41" t="n">
-        <v>2344.749822082216</v>
+        <v>1936.266716160826</v>
       </c>
       <c r="W41" t="n">
-        <v>2344.749822082216</v>
+        <v>1583.498060890711</v>
       </c>
       <c r="X41" t="n">
-        <v>1971.284063821136</v>
+        <v>1210.032302629632</v>
       </c>
       <c r="Y41" t="n">
-        <v>1581.144731845325</v>
+        <v>1210.032302629632</v>
       </c>
     </row>
     <row r="42">
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>743.7701938734156</v>
+        <v>814.129334229901</v>
       </c>
       <c r="C42" t="n">
-        <v>569.3171645922886</v>
+        <v>639.676304948774</v>
       </c>
       <c r="D42" t="n">
-        <v>420.3827549310373</v>
+        <v>490.7418952875228</v>
       </c>
       <c r="E42" t="n">
-        <v>261.1452999255818</v>
+        <v>331.5044402820673</v>
       </c>
       <c r="F42" t="n">
-        <v>114.6107419524668</v>
+        <v>184.9698823089523</v>
       </c>
       <c r="G42" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H42" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I42" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J42" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K42" t="n">
-        <v>336.0641406922997</v>
+        <v>172.2525564994817</v>
       </c>
       <c r="L42" t="n">
-        <v>705.6153558007836</v>
+        <v>541.8037716079657</v>
       </c>
       <c r="M42" t="n">
-        <v>1188.843414867958</v>
+        <v>1025.03183067514</v>
       </c>
       <c r="N42" t="n">
-        <v>1700.568096156132</v>
+        <v>1536.756511963314</v>
       </c>
       <c r="O42" t="n">
-        <v>1949.321510240094</v>
+        <v>1938.46894355964</v>
       </c>
       <c r="P42" t="n">
-        <v>2254.728084512307</v>
+        <v>2243.875517831853</v>
       </c>
       <c r="Q42" t="n">
         <v>2344.749822082216</v>
@@ -7517,25 +7517,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S42" t="n">
-        <v>2183.516266982771</v>
+        <v>2315.069097472212</v>
       </c>
       <c r="T42" t="n">
-        <v>1983.973569036802</v>
+        <v>2115.526399526243</v>
       </c>
       <c r="U42" t="n">
-        <v>1816.986794823915</v>
+        <v>1887.3459351804</v>
       </c>
       <c r="V42" t="n">
-        <v>1581.834686592172</v>
+        <v>1652.193826948657</v>
       </c>
       <c r="W42" t="n">
-        <v>1327.59732986397</v>
+        <v>1397.956470220456</v>
       </c>
       <c r="X42" t="n">
-        <v>1119.745829658438</v>
+        <v>1190.104970014923</v>
       </c>
       <c r="Y42" t="n">
-        <v>911.9855308934837</v>
+        <v>982.344671249969</v>
       </c>
     </row>
     <row r="43">
@@ -7572,7 +7572,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K43" t="n">
-        <v>87.46721626702977</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L43" t="n">
         <v>194.9121237200978</v>
@@ -7593,19 +7593,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="R43" t="n">
-        <v>607.7685734363102</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="S43" t="n">
-        <v>391.0727469424309</v>
+        <v>236.7148120170114</v>
       </c>
       <c r="T43" t="n">
-        <v>391.0727469424309</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="U43" t="n">
-        <v>101.891601688354</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="V43" t="n">
-        <v>101.891601688354</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="W43" t="n">
         <v>46.89499644164432</v>
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>767.4026914201181</v>
+        <v>206.5177100920538</v>
       </c>
       <c r="C44" t="n">
-        <v>405.1606950483948</v>
+        <v>206.5177100920538</v>
       </c>
       <c r="D44" t="n">
-        <v>46.89499644164432</v>
+        <v>206.5177100920538</v>
       </c>
       <c r="E44" t="n">
-        <v>46.89499644164432</v>
+        <v>206.5177100920538</v>
       </c>
       <c r="F44" t="n">
-        <v>46.89499644164432</v>
+        <v>206.5177100920538</v>
       </c>
       <c r="G44" t="n">
         <v>46.89499644164432</v>
@@ -7648,16 +7648,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J44" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K44" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275679</v>
       </c>
       <c r="L44" t="n">
-        <v>762.5916738244546</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M44" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N44" t="n">
         <v>1610.799342072557</v>
@@ -7672,28 +7672,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R44" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S44" t="n">
-        <v>2270.376276991246</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="T44" t="n">
-        <v>2270.376276991246</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="U44" t="n">
-        <v>2270.376276991246</v>
+        <v>1687.785527736638</v>
       </c>
       <c r="V44" t="n">
-        <v>2270.376276991246</v>
+        <v>1356.722640393067</v>
       </c>
       <c r="W44" t="n">
-        <v>1917.607621721131</v>
+        <v>1356.722640393067</v>
       </c>
       <c r="X44" t="n">
-        <v>1544.141863460052</v>
+        <v>983.2568821319874</v>
       </c>
       <c r="Y44" t="n">
-        <v>1154.00253148424</v>
+        <v>593.1175501561756</v>
       </c>
     </row>
     <row r="45">
@@ -7703,16 +7703,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>622.1327649551154</v>
+        <v>676.0544483625931</v>
       </c>
       <c r="C45" t="n">
-        <v>447.6797356739884</v>
+        <v>501.6014190814661</v>
       </c>
       <c r="D45" t="n">
-        <v>298.7453260127371</v>
+        <v>352.6670094202149</v>
       </c>
       <c r="E45" t="n">
-        <v>139.5078710072816</v>
+        <v>193.4295544147594</v>
       </c>
       <c r="F45" t="n">
         <v>46.89499644164432</v>
@@ -7727,25 +7727,25 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J45" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K45" t="n">
-        <v>336.0641406922997</v>
+        <v>172.2525564994817</v>
       </c>
       <c r="L45" t="n">
-        <v>705.6153558007836</v>
+        <v>541.8037716079657</v>
       </c>
       <c r="M45" t="n">
-        <v>1188.843414867958</v>
+        <v>1025.03183067514</v>
       </c>
       <c r="N45" t="n">
-        <v>1700.568096156132</v>
+        <v>1536.756511963314</v>
       </c>
       <c r="O45" t="n">
-        <v>2039.343247810003</v>
+        <v>1938.46894355964</v>
       </c>
       <c r="P45" t="n">
-        <v>2344.749822082216</v>
+        <v>2243.875517831853</v>
       </c>
       <c r="Q45" t="n">
         <v>2344.749822082216</v>
@@ -7760,19 +7760,19 @@
         <v>1923.529830251457</v>
       </c>
       <c r="U45" t="n">
-        <v>1695.349365905614</v>
+        <v>1749.271049313092</v>
       </c>
       <c r="V45" t="n">
-        <v>1460.197257673872</v>
+        <v>1514.118941081349</v>
       </c>
       <c r="W45" t="n">
-        <v>1205.95990094567</v>
+        <v>1259.881584353148</v>
       </c>
       <c r="X45" t="n">
-        <v>998.1084007401373</v>
+        <v>1052.030084147615</v>
       </c>
       <c r="Y45" t="n">
-        <v>790.3481019751835</v>
+        <v>844.2697853826612</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>426.1201086060705</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C46" t="n">
-        <v>426.1201086060705</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D46" t="n">
-        <v>426.1201086060705</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E46" t="n">
-        <v>426.1201086060705</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F46" t="n">
-        <v>426.1201086060705</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G46" t="n">
-        <v>346.3547163191316</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H46" t="n">
-        <v>187.3781536425449</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I46" t="n">
         <v>46.89499644164432</v>
@@ -7839,19 +7839,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="U46" t="n">
-        <v>607.7685734363102</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="V46" t="n">
-        <v>607.7685734363102</v>
+        <v>63.90293997634646</v>
       </c>
       <c r="W46" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X46" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y46" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
   </sheetData>
@@ -8063,13 +8063,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>303.312501347746</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8297,22 +8297,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N6" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8534,16 +8534,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>241.9453110519923</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8771,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>47.90390621998491</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9023,10 +9023,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>101.9014378473433</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K21" t="n">
-        <v>200.8922269696948</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>47.90390621998491</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>261.4978194579837</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11302,7 +11302,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504499</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>57.0889669861391</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,31 +22546,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,31 +22591,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>173.9525530126115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22625,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>81.55953011607097</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -22643,7 +22643,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22704,28 +22704,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22746,34 +22746,34 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22783,31 +22783,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22840,19 +22840,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>225.414031377446</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22862,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -22883,10 +22883,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.5151993764422</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22941,28 +22941,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22983,34 +22983,34 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23020,31 +23020,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23077,19 +23077,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>225.414031377446</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23099,7 +23099,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -23111,7 +23111,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>26.51519937644223</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -23123,7 +23123,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23178,28 +23178,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23220,34 +23220,34 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23263,10 +23263,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>215.828444915725</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23275,7 +23275,7 @@
         <v>414.089049841944</v>
       </c>
       <c r="H11" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>163.6851955497072</v>
@@ -23305,19 +23305,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>54.39038044177123</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23342,22 +23342,22 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>10.72541134164737</v>
       </c>
       <c r="F12" t="n">
-        <v>53.38246657340298</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -23427,19 +23427,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>108.9366819640819</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>54.86879163620182</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.57441713704631</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R13" t="n">
         <v>152.8143555761653</v>
@@ -23469,16 +23469,16 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T13" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>243.1669285369034</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23509,10 +23509,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>304.0942674467346</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S14" t="n">
         <v>181.3631617334038</v>
@@ -23554,16 +23554,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>182.8438538381624</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23585,13 +23585,13 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>20.70215791122234</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23630,7 +23630,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>197.2758902402605</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23642,7 +23642,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23664,19 +23664,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>108.9366819640819</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>141.1671108402407</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -23743,16 +23743,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -23791,16 +23791,16 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>56.39594471400608</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>86.19016996676044</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23825,13 +23825,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23861,13 +23861,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>159.6212195484502</v>
+        <v>159.3462656328121</v>
       </c>
       <c r="T18" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>5.910500182201503</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23892,10 +23892,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>80.85836931924187</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H19" t="n">
         <v>157.3867970498209</v>
@@ -23937,13 +23937,13 @@
         <v>40.57441713704631</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S19" t="n">
-        <v>214.5288682289405</v>
+        <v>103.4681179798115</v>
       </c>
       <c r="T19" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2893338015361</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>220.8539767136757</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>73.62980964006113</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24031,13 +24031,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>7.758942313796183</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24059,16 +24059,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>130.2373021845463</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24098,7 +24098,7 @@
         <v>59.83930139749142</v>
       </c>
       <c r="S21" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24107,7 +24107,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>143.6184697512196</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -24132,19 +24132,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>167.4465608509556</v>
       </c>
       <c r="H22" t="n">
-        <v>157.3867970498209</v>
+        <v>42.59243951281445</v>
       </c>
       <c r="I22" t="n">
         <v>139.0783256288916</v>
@@ -24186,13 +24186,13 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V22" t="n">
-        <v>209.1054558247369</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>321.026476016081</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>327.0451232326991</v>
+        <v>51.84805964330405</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,7 +24259,7 @@
         <v>181.3631617334038</v>
       </c>
       <c r="T23" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24268,13 +24268,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24299,13 +24299,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,13 +24332,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>5.910500182201289</v>
+        <v>53.38246657340287</v>
       </c>
       <c r="S24" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24366,13 +24366,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>26.07392824159841</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>59.84577111485541</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24411,7 +24411,7 @@
         <v>40.57441713704631</v>
       </c>
       <c r="R25" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>214.5288682289405</v>
@@ -24420,7 +24420,7 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24451,19 +24451,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>69.14415845627985</v>
+        <v>66.68292590318356</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>73.62980964006113</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24502,16 +24502,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24530,16 +24530,16 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>14.27705323942851</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>136.6941370086349</v>
+        <v>130.2373021845463</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I27" t="n">
         <v>67.03858805571426</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24609,16 +24609,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>61.4235273455577</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I28" t="n">
         <v>139.0783256288916</v>
@@ -24657,13 +24657,13 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2893338015361</v>
+        <v>17.5474909134079</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24682,25 +24682,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>19.26628049237502</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>169.4371973570421</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,16 +24733,16 @@
         <v>181.3631617334038</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24770,16 +24770,16 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>58.38855875532724</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,10 +24806,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>53.38246657340287</v>
       </c>
       <c r="S30" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I31" t="n">
-        <v>95.81247359474563</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J31" t="n">
         <v>54.86879163620181</v>
@@ -24885,16 +24885,16 @@
         <v>40.57441713704631</v>
       </c>
       <c r="R31" t="n">
-        <v>152.8143555761653</v>
+        <v>37.69782020388202</v>
       </c>
       <c r="S31" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24903,7 +24903,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24922,22 +24922,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>301.7895480499038</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>246.2084518230422</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24973,13 +24973,13 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -25001,22 +25001,22 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>57.98884467712186</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>14.27705323942853</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.4465608509556</v>
+        <v>78.53669814476467</v>
       </c>
       <c r="H34" t="n">
         <v>157.3867970498209</v>
@@ -25125,19 +25125,19 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U34" t="n">
-        <v>171.1727984292525</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25156,22 +25156,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H35" t="n">
-        <v>148.3472510191685</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>163.6851955497072</v>
@@ -25201,25 +25201,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T35" t="n">
         <v>217.7829317747374</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>260.06862895564</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25247,13 +25247,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>143.6184697512195</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>53.38246657340306</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25359,22 +25359,22 @@
         <v>40.57441713704631</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S37" t="n">
         <v>214.5288682289405</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U37" t="n">
-        <v>109.4582857764776</v>
+        <v>269.6851342372358</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25393,16 +25393,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>302.7725033662757</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>78.84393732933682</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25438,25 +25438,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>217.7829317747374</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25481,10 +25481,10 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>53.38246657340298</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>136.6941370086349</v>
+        <v>130.2373021845463</v>
       </c>
       <c r="H39" t="n">
         <v>105.9637990594094</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25554,19 +25554,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>167.4465608509556</v>
       </c>
       <c r="H40" t="n">
-        <v>157.3867970498209</v>
+        <v>48.97283244241056</v>
       </c>
       <c r="I40" t="n">
         <v>139.0783256288916</v>
@@ -25596,19 +25596,19 @@
         <v>40.57441713704631</v>
       </c>
       <c r="R40" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>214.5288682289405</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V40" t="n">
-        <v>208.7815735241399</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25633,16 +25633,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>7.316061048493111</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>327.0451232326991</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>181.3631617334038</v>
@@ -25684,19 +25684,19 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2485578939812</v>
+        <v>248.2323511420005</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25721,13 +25721,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>105.9637990594094</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>59.83930139749141</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>130.237302184546</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>60.58175323162575</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I43" t="n">
-        <v>139.0783256288915</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J43" t="n">
         <v>54.86879163620181</v>
@@ -25830,25 +25830,25 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>40.5744171370463</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R43" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.6194376234954</v>
+        <v>37.69782020388197</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>232.0763591423484</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25867,10 +25867,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>6.653315363001525</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25879,7 +25879,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.089049841944</v>
+        <v>256.0625633280386</v>
       </c>
       <c r="H44" t="n">
         <v>327.0451232326991</v>
@@ -25912,22 +25912,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S44" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -25955,7 +25955,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>53.38246657340298</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>136.6941370086349</v>
@@ -26000,7 +26000,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>53.38246657340306</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>88.47882248688613</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J46" t="n">
         <v>54.86879163620181</v>
@@ -26079,13 +26079,13 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>269.6851342372359</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>398785.614075198</v>
+        <v>985250.1238371405</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>398785.614075198</v>
+        <v>985250.1238371405</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>398785.614075198</v>
+        <v>985250.1238371405</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>634502.6394341171</v>
+        <v>634502.6394341168</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>634502.6394341169</v>
+        <v>634502.6394341168</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>634502.6394341171</v>
+        <v>634502.6394341168</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>634502.639434117</v>
+        <v>634502.6394341171</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>634502.6394341169</v>
+        <v>634502.6394341168</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>634502.6394341171</v>
+        <v>634502.6394341169</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>634502.6394341168</v>
+        <v>634502.6394341169</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>634502.6394341168</v>
+        <v>634502.6394341169</v>
       </c>
     </row>
     <row r="16">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>182776.7397844656</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="C2" t="n">
-        <v>182776.7397844656</v>
+        <v>451572.973425356</v>
       </c>
       <c r="D2" t="n">
-        <v>182776.7397844657</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="E2" t="n">
+        <v>290813.7097406369</v>
+      </c>
+      <c r="F2" t="n">
+        <v>290813.7097406369</v>
+      </c>
+      <c r="G2" t="n">
         <v>290813.7097406368</v>
-      </c>
-      <c r="F2" t="n">
-        <v>290813.7097406368</v>
-      </c>
-      <c r="G2" t="n">
-        <v>290813.7097406366</v>
       </c>
       <c r="H2" t="n">
         <v>290813.7097406369</v>
@@ -26337,25 +26337,25 @@
         <v>290813.7097406369</v>
       </c>
       <c r="J2" t="n">
+        <v>290813.7097406369</v>
+      </c>
+      <c r="K2" t="n">
+        <v>290813.7097406369</v>
+      </c>
+      <c r="L2" t="n">
         <v>290813.7097406368</v>
-      </c>
-      <c r="K2" t="n">
-        <v>290813.709740637</v>
-      </c>
-      <c r="L2" t="n">
-        <v>290813.7097406369</v>
       </c>
       <c r="M2" t="n">
         <v>290813.7097406369</v>
       </c>
       <c r="N2" t="n">
-        <v>290813.709740637</v>
+        <v>290813.7097406369</v>
       </c>
       <c r="O2" t="n">
         <v>290813.7097406368</v>
       </c>
       <c r="P2" t="n">
-        <v>290813.7097406369</v>
+        <v>290813.7097406368</v>
       </c>
     </row>
     <row r="3">
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>86018.53382007605</v>
+        <v>86018.53382007602</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.5324977039669</v>
+        <v>279125.0601321633</v>
       </c>
       <c r="C4" t="n">
-        <v>179.5324977039669</v>
+        <v>279125.0601321633</v>
       </c>
       <c r="D4" t="n">
-        <v>179.5324977039669</v>
+        <v>279125.0601321633</v>
       </c>
       <c r="E4" t="n">
         <v>445.150385721245</v>
@@ -26459,7 +26459,7 @@
         <v>445.150385721245</v>
       </c>
       <c r="P4" t="n">
-        <v>445.150385721245</v>
+        <v>445.1503857212451</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>53546.50699145224</v>
+        <v>43397.21299788316</v>
       </c>
       <c r="C6" t="n">
-        <v>134315.938523</v>
+        <v>124166.644529431</v>
       </c>
       <c r="D6" t="n">
-        <v>134315.938523</v>
+        <v>124166.6445294308</v>
       </c>
       <c r="E6" t="n">
-        <v>-97465.50554948373</v>
+        <v>-104772.7448078799</v>
       </c>
       <c r="F6" t="n">
-        <v>248146.837229469</v>
+        <v>240839.5979710728</v>
       </c>
       <c r="G6" t="n">
-        <v>248146.8372294689</v>
+        <v>240839.5979710727</v>
       </c>
       <c r="H6" t="n">
-        <v>248146.8372294691</v>
+        <v>240839.5979710728</v>
       </c>
       <c r="I6" t="n">
-        <v>248146.8372294692</v>
+        <v>240839.5979710728</v>
       </c>
       <c r="J6" t="n">
-        <v>185086.8946303627</v>
+        <v>177779.6553719665</v>
       </c>
       <c r="K6" t="n">
-        <v>248146.8372294692</v>
+        <v>240839.5979710728</v>
       </c>
       <c r="L6" t="n">
-        <v>248146.8372294692</v>
+        <v>240839.5979710727</v>
       </c>
       <c r="M6" t="n">
-        <v>162128.3034093931</v>
+        <v>154821.0641509967</v>
       </c>
       <c r="N6" t="n">
-        <v>248146.8372294692</v>
+        <v>240839.5979710728</v>
       </c>
       <c r="O6" t="n">
-        <v>248146.837229469</v>
+        <v>240839.5979710727</v>
       </c>
       <c r="P6" t="n">
-        <v>248146.8372294691</v>
+        <v>240839.5979710727</v>
       </c>
     </row>
   </sheetData>
@@ -26776,7 +26776,7 @@
         <v>301.9048087062786</v>
       </c>
       <c r="O3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="P3" t="n">
         <v>301.9048087062787</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>345.1731666428951</v>
+        <v>345.173166642895</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>345.1731666428951</v>
+        <v>345.173166642895</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>345.1731666428951</v>
+        <v>345.173166642895</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>201.2949868753087</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27466,16 +27466,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27508,22 +27508,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>153.1152352375005</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,31 +27581,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>110.3886183277161</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>349.7082848322977</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -27694,22 +27694,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>143.9078879708281</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27748,19 +27748,19 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,31 +27818,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>117.5136203646585</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27909,19 +27909,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>115.8589587798983</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27943,7 +27943,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -27952,7 +27952,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,28 +27979,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>185.2705111887433</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>71.63594515755861</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,31 +28055,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31758,25 +31758,25 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I11" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069872</v>
       </c>
       <c r="J11" t="n">
         <v>103.0102241525006</v>
       </c>
       <c r="K11" t="n">
-        <v>154.3856233586786</v>
+        <v>154.3856233586785</v>
       </c>
       <c r="L11" t="n">
-        <v>191.5290174870998</v>
+        <v>191.5290174870997</v>
       </c>
       <c r="M11" t="n">
-        <v>213.1129356452115</v>
+        <v>213.1129356452114</v>
       </c>
       <c r="N11" t="n">
-        <v>216.5613257466656</v>
+        <v>216.5613257466655</v>
       </c>
       <c r="O11" t="n">
-        <v>204.4927189463719</v>
+        <v>204.4927189463718</v>
       </c>
       <c r="P11" t="n">
         <v>174.5298045144673</v>
@@ -31785,16 +31785,16 @@
         <v>131.0646147183121</v>
       </c>
       <c r="R11" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108854</v>
       </c>
       <c r="S11" t="n">
         <v>27.65690785284151</v>
       </c>
       <c r="T11" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393906</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528548</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,25 +31831,25 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.649380154575769</v>
       </c>
       <c r="H12" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087033</v>
       </c>
       <c r="I12" t="n">
-        <v>22.35804479570083</v>
+        <v>22.35804479570082</v>
       </c>
       <c r="J12" t="n">
-        <v>61.35218381454669</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>104.8606541711232</v>
       </c>
       <c r="L12" t="n">
-        <v>140.9980901415503</v>
+        <v>140.9980901415502</v>
       </c>
       <c r="M12" t="n">
-        <v>164.5381207449218</v>
+        <v>161.5707031903272</v>
       </c>
       <c r="N12" t="n">
         <v>168.8929552025813</v>
@@ -31861,7 +31861,7 @@
         <v>124.0031279382449</v>
       </c>
       <c r="Q12" t="n">
-        <v>82.8928070998824</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>40.31853275515171</v>
@@ -31870,10 +31870,10 @@
         <v>12.06195155538763</v>
       </c>
       <c r="T12" t="n">
-        <v>2.617457728311981</v>
+        <v>2.61745772831198</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04272237859051115</v>
+        <v>0.04272237859051114</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031253</v>
       </c>
       <c r="H13" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618698</v>
       </c>
       <c r="I13" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J13" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047095</v>
       </c>
       <c r="K13" t="n">
-        <v>63.25153205354491</v>
+        <v>63.2515320535449</v>
       </c>
       <c r="L13" t="n">
-        <v>80.94018428823739</v>
+        <v>80.94018428823738</v>
       </c>
       <c r="M13" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069443</v>
       </c>
       <c r="N13" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545558</v>
       </c>
       <c r="O13" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598722</v>
       </c>
       <c r="P13" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292341</v>
       </c>
       <c r="Q13" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464806</v>
       </c>
       <c r="R13" t="n">
-        <v>24.47903580100416</v>
+        <v>24.47903580100415</v>
       </c>
       <c r="S13" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031734</v>
       </c>
       <c r="T13" t="n">
         <v>2.32615180478608</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471595</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32095,7 +32095,7 @@
         <v>154.5040580932971</v>
       </c>
       <c r="P15" t="n">
-        <v>124.0031279382449</v>
+        <v>60.43011789536098</v>
       </c>
       <c r="Q15" t="n">
         <v>82.8928070998824</v>
@@ -32323,19 +32323,19 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M18" t="n">
-        <v>100.965110702038</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N18" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O18" t="n">
-        <v>154.5040580932971</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q18" t="n">
-        <v>82.8928070998824</v>
+        <v>81.44112688887472</v>
       </c>
       <c r="R18" t="n">
         <v>40.31853275515171</v>
@@ -32554,7 +32554,7 @@
         <v>61.35218381454669</v>
       </c>
       <c r="K21" t="n">
-        <v>104.8606541711232</v>
+        <v>72.9080438050635</v>
       </c>
       <c r="L21" t="n">
         <v>140.9980901415503</v>
@@ -32569,7 +32569,7 @@
         <v>154.5040580932971</v>
       </c>
       <c r="P21" t="n">
-        <v>124.0031279382449</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>82.8928070998824</v>
@@ -32791,7 +32791,7 @@
         <v>61.35218381454669</v>
       </c>
       <c r="K24" t="n">
-        <v>104.8606541711232</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>140.9980901415503</v>
@@ -32806,10 +32806,10 @@
         <v>154.5040580932971</v>
       </c>
       <c r="P24" t="n">
-        <v>124.0031279382449</v>
+        <v>95.19525841665677</v>
       </c>
       <c r="Q24" t="n">
-        <v>82.8928070998824</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>40.31853275515171</v>
@@ -33025,10 +33025,10 @@
         <v>22.35804479570083</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K27" t="n">
-        <v>104.8606541711232</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>140.9980901415503</v>
@@ -33043,10 +33043,10 @@
         <v>154.5040580932971</v>
       </c>
       <c r="P27" t="n">
-        <v>124.0031279382449</v>
+        <v>95.19525841665677</v>
       </c>
       <c r="Q27" t="n">
-        <v>82.8928070998824</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>40.31853275515171</v>
@@ -33262,10 +33262,10 @@
         <v>22.35804479570083</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K30" t="n">
-        <v>104.8606541711232</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>140.9980901415503</v>
@@ -33274,13 +33274,13 @@
         <v>164.5381207449218</v>
       </c>
       <c r="N30" t="n">
-        <v>12.93721689827657</v>
+        <v>168.8929552025813</v>
       </c>
       <c r="O30" t="n">
         <v>154.5040580932971</v>
       </c>
       <c r="P30" t="n">
-        <v>124.0031279382449</v>
+        <v>72.90804380506313</v>
       </c>
       <c r="Q30" t="n">
         <v>82.8928070998824</v>
@@ -33499,10 +33499,10 @@
         <v>22.35804479570083</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>104.8606541711232</v>
       </c>
       <c r="L33" t="n">
         <v>140.9980901415503</v>
@@ -33514,13 +33514,13 @@
         <v>168.8929552025813</v>
       </c>
       <c r="O33" t="n">
-        <v>154.5040580932971</v>
+        <v>90.93104805041338</v>
       </c>
       <c r="P33" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q33" t="n">
-        <v>31.79772296670062</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>40.31853275515171</v>
@@ -33748,7 +33748,7 @@
         <v>164.5381207449218</v>
       </c>
       <c r="N36" t="n">
-        <v>105.3199451596975</v>
+        <v>12.93721689827657</v>
       </c>
       <c r="O36" t="n">
         <v>154.5040580932971</v>
@@ -34128,7 +34128,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I41" t="n">
-        <v>46.79069402069874</v>
+        <v>46.79069402069873</v>
       </c>
       <c r="J41" t="n">
         <v>103.0102241525006</v>
@@ -34149,22 +34149,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P41" t="n">
-        <v>174.5298045144674</v>
+        <v>174.5298045144673</v>
       </c>
       <c r="Q41" t="n">
-        <v>131.0646147183122</v>
+        <v>131.0646147183121</v>
       </c>
       <c r="R41" t="n">
-        <v>76.23930830108857</v>
+        <v>76.23930830108856</v>
       </c>
       <c r="S41" t="n">
-        <v>27.65690785284152</v>
+        <v>27.65690785284151</v>
       </c>
       <c r="T41" t="n">
-        <v>5.312917789393908</v>
+        <v>5.312917789393907</v>
       </c>
       <c r="U41" t="n">
-        <v>0.09709501385528552</v>
+        <v>0.0970950138552855</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,43 +34201,43 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6493801545757693</v>
+        <v>0.6493801545757691</v>
       </c>
       <c r="H42" t="n">
-        <v>6.271645177087036</v>
+        <v>6.271645177087034</v>
       </c>
       <c r="I42" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J42" t="n">
-        <v>61.3521838145467</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K42" t="n">
-        <v>104.8606541711232</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>140.9980901415503</v>
       </c>
       <c r="M42" t="n">
-        <v>164.5381207449219</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N42" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P42" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q42" t="n">
-        <v>20.83553440058552</v>
+        <v>31.79772296670062</v>
       </c>
       <c r="R42" t="n">
-        <v>40.31853275515172</v>
+        <v>40.31853275515171</v>
       </c>
       <c r="S42" t="n">
-        <v>12.06195155538764</v>
+        <v>12.06195155538763</v>
       </c>
       <c r="T42" t="n">
         <v>2.617457728311981</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5444185075031255</v>
+        <v>0.5444185075031254</v>
       </c>
       <c r="H43" t="n">
-        <v>4.840375457618701</v>
+        <v>4.8403754576187</v>
       </c>
       <c r="I43" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J43" t="n">
-        <v>38.49038848047097</v>
+        <v>38.49038848047096</v>
       </c>
       <c r="K43" t="n">
-        <v>63.25153205354492</v>
+        <v>63.25153205354491</v>
       </c>
       <c r="L43" t="n">
-        <v>80.9401842882374</v>
+        <v>80.94018428823739</v>
       </c>
       <c r="M43" t="n">
-        <v>85.34007568069447</v>
+        <v>85.34007568069444</v>
       </c>
       <c r="N43" t="n">
-        <v>83.31087942545561</v>
+        <v>83.3108794254556</v>
       </c>
       <c r="O43" t="n">
-        <v>76.95108140598725</v>
+        <v>76.95108140598724</v>
       </c>
       <c r="P43" t="n">
-        <v>65.84494385292344</v>
+        <v>65.84494385292342</v>
       </c>
       <c r="Q43" t="n">
-        <v>45.58762611464808</v>
+        <v>45.58762611464807</v>
       </c>
       <c r="R43" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S43" t="n">
-        <v>9.487729808031737</v>
+        <v>9.487729808031736</v>
       </c>
       <c r="T43" t="n">
-        <v>2.326151804786081</v>
+        <v>2.32615180478608</v>
       </c>
       <c r="U43" t="n">
-        <v>0.02969555495471597</v>
+        <v>0.02969555495471596</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34450,7 +34450,7 @@
         <v>61.3521838145467</v>
       </c>
       <c r="K45" t="n">
-        <v>104.8606541711232</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>140.9980901415503</v>
@@ -34462,13 +34462,13 @@
         <v>168.8929552025813</v>
       </c>
       <c r="O45" t="n">
-        <v>90.93104805041338</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P45" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q45" t="n">
-        <v>82.89280709988242</v>
+        <v>31.79772296670062</v>
       </c>
       <c r="R45" t="n">
         <v>40.31853275515172</v>
@@ -34783,13 +34783,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>161.1784674257276</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N6" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35254,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788805</v>
       </c>
       <c r="K11" t="n">
         <v>258.4411848848628</v>
@@ -35418,13 +35418,13 @@
         <v>373.4238170675629</v>
       </c>
       <c r="M11" t="n">
-        <v>432.2802359107712</v>
+        <v>432.2802359107711</v>
       </c>
       <c r="N11" t="n">
         <v>424.4951865620588</v>
       </c>
       <c r="O11" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874304</v>
       </c>
       <c r="P11" t="n">
         <v>265.0955169306804</v>
@@ -35488,16 +35488,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>14.92312141674913</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L12" t="n">
-        <v>373.2840556651353</v>
+        <v>373.2840556651352</v>
       </c>
       <c r="M12" t="n">
-        <v>488.1091505729034</v>
+        <v>485.1417330183088</v>
       </c>
       <c r="N12" t="n">
         <v>516.8936174628016</v>
@@ -35509,7 +35509,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q12" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766205</v>
       </c>
       <c r="L13" t="n">
         <v>108.5302095485535</v>
@@ -35585,7 +35585,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P13" t="n">
-        <v>63.12350311781691</v>
+        <v>63.1235031178169</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35743,10 +35743,10 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P15" t="n">
-        <v>91.93015837125802</v>
+        <v>244.9184791209679</v>
       </c>
       <c r="Q15" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>231.4844522093428</v>
@@ -35971,19 +35971,19 @@
         <v>373.2840556651353</v>
       </c>
       <c r="M18" t="n">
-        <v>424.5361405300196</v>
+        <v>488.1091505729034</v>
       </c>
       <c r="N18" t="n">
         <v>516.8936174628016</v>
       </c>
       <c r="O18" t="n">
-        <v>405.7701329255822</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>151.5366405387023</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>167.911442166459</v>
+        <v>199.5318418432831</v>
       </c>
       <c r="L21" t="n">
         <v>373.2840556651353</v>
@@ -36217,10 +36217,10 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P21" t="n">
-        <v>308.4914891638518</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>60.60559248828883</v>
       </c>
       <c r="K24" t="n">
-        <v>14.92312141674913</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>373.2840556651353</v>
@@ -36454,10 +36454,10 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P24" t="n">
-        <v>308.4914891638518</v>
+        <v>279.6836196422637</v>
       </c>
       <c r="Q24" t="n">
-        <v>152.98832074971</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K27" t="n">
-        <v>228.5170346547479</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>373.2840556651353</v>
@@ -36691,10 +36691,10 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P27" t="n">
-        <v>308.4914891638518</v>
+        <v>279.6836196422637</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>231.4844522093428</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>373.2840556651353</v>
@@ -36922,13 +36922,13 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N30" t="n">
-        <v>360.9378791584968</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O30" t="n">
         <v>405.7701329255822</v>
       </c>
       <c r="P30" t="n">
-        <v>308.4914891638518</v>
+        <v>257.3964050306701</v>
       </c>
       <c r="Q30" t="n">
         <v>152.98832074971</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L33" t="n">
         <v>373.2840556651353</v>
@@ -37162,13 +37162,13 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O33" t="n">
-        <v>405.7701329255822</v>
+        <v>342.1971228826985</v>
       </c>
       <c r="P33" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q33" t="n">
-        <v>101.8932366165282</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>231.4844522093428</v>
@@ -37396,7 +37396,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N36" t="n">
-        <v>453.3206074199177</v>
+        <v>360.9378791584968</v>
       </c>
       <c r="O36" t="n">
         <v>405.7701329255822</v>
@@ -37405,7 +37405,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37779,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788807</v>
       </c>
       <c r="K41" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L41" t="n">
-        <v>373.423817067563</v>
+        <v>373.4238170675629</v>
       </c>
       <c r="M41" t="n">
         <v>432.2802359107712</v>
@@ -37794,13 +37794,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O41" t="n">
-        <v>355.1946887874306</v>
+        <v>355.1946887874305</v>
       </c>
       <c r="P41" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q41" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037673</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>60.60559248828884</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>231.4844522093429</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>373.2840556651353</v>
@@ -37873,13 +37873,13 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O42" t="n">
-        <v>251.2660748322851</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P42" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.9310480504131</v>
+        <v>101.8932366165282</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,13 +37940,13 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>40.98204022766207</v>
+        <v>40.98204022766206</v>
       </c>
       <c r="L43" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M43" t="n">
-        <v>124.9239526425351</v>
+        <v>124.923952642535</v>
       </c>
       <c r="N43" t="n">
         <v>127.4430518046842</v>
@@ -37955,7 +37955,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P43" t="n">
-        <v>63.12350311781692</v>
+        <v>63.12350311781691</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38022,7 +38022,7 @@
         <v>258.4411848848628</v>
       </c>
       <c r="L44" t="n">
-        <v>373.4238170675625</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M44" t="n">
         <v>432.2802359107712</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>60.60559248828884</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>231.4844522093429</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
         <v>373.2840556651353</v>
@@ -38110,13 +38110,13 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O45" t="n">
-        <v>342.1971228826985</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P45" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>101.8932366165282</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
